--- a/JACOB MIRIAMBE.xlsx
+++ b/JACOB MIRIAMBE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11310" tabRatio="494" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11310" tabRatio="494" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER 20" sheetId="1" r:id="rId1"/>
@@ -30,12 +25,13 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="140">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -451,13 +447,16 @@
     <t>DEPOSIT NO.12</t>
   </si>
   <si>
-    <t>PAID ON 2/12</t>
+    <t>PAID ON 4/12</t>
+  </si>
+  <si>
+    <t>PAID ON 15/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -764,9 +763,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -793,89 +789,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="25">
-          <cell r="E25">
-            <v>3300</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32">
-            <v>4600</v>
-          </cell>
-        </row>
         <row r="33">
           <cell r="H33" t="str">
             <v>BL</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44">
-            <v>4600</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45">
-            <v>4600</v>
           </cell>
         </row>
         <row r="46">
@@ -883,109 +799,21 @@
             <v>893</v>
           </cell>
         </row>
-        <row r="47">
-          <cell r="H47">
-            <v>893</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48">
-            <v>893</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="28">
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="28">
-          <cell r="E28">
-            <v>36300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="28">
-          <cell r="E28">
-            <v>40300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="28">
-          <cell r="E28">
-            <v>20500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="28">
-          <cell r="E28">
-            <v>15500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="28">
-          <cell r="E28">
-            <v>21500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="28">
-          <cell r="E28">
-            <v>23500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="28">
-          <cell r="E28">
-            <v>21500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="28">
-          <cell r="E28">
-            <v>20000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="28">
-          <cell r="E28">
-            <v>29000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="28">
-          <cell r="E28">
-            <v>30000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="28">
-          <cell r="E28">
-            <v>38000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="28">
-          <cell r="E28">
-            <v>39000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1034,7 +862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,7 +897,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1770,7 +1598,7 @@
         <v>4500</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
@@ -1789,7 +1617,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -1808,7 +1636,7 @@
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -1827,7 +1655,7 @@
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="2">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -1941,7 +1769,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="3"/>
@@ -2432,7 +2260,7 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>2500</v>
       </c>
       <c r="G7" s="16">
@@ -2440,7 +2268,7 @@
         <v>2500</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="15"/>
@@ -2470,7 +2298,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -2519,7 +2347,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>3000</v>
       </c>
       <c r="G10" s="16">
@@ -2547,7 +2375,7 @@
         <v>2500</v>
       </c>
       <c r="F11" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G11" s="16">
@@ -2574,14 +2402,14 @@
         <v>2500</v>
       </c>
       <c r="F12" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G12" s="16">
         <v>2500</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
@@ -2602,14 +2430,14 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G13" s="16">
         <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
@@ -2630,7 +2458,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
@@ -2638,7 +2466,7 @@
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -2659,7 +2487,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G15" s="16">
@@ -2667,7 +2495,7 @@
         <v>2000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I15" s="15"/>
@@ -2695,7 +2523,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -2716,7 +2544,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G17" s="16">
@@ -2724,7 +2552,7 @@
         <v>1500</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I17" s="15"/>
@@ -2745,14 +2573,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -2771,12 +2599,12 @@
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -2793,12 +2621,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -2827,7 +2655,7 @@
         <v>4000</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>2500</v>
       </c>
       <c r="I21" s="15"/>
@@ -2849,7 +2677,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -2866,12 +2694,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -2888,12 +2716,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="3">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -2910,12 +2738,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -2937,7 +2765,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -2952,12 +2780,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -2968,7 +2796,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="4">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
         <v>0</v>
       </c>
       <c r="D28" s="15">
@@ -2976,23 +2804,23 @@
         <v>8250</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36000</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41250</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33000</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8250</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3378,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,14 +3324,14 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>2500</v>
       </c>
       <c r="G7" s="16">
         <v>2500</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="15"/>
@@ -3533,7 +3361,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -3582,7 +3410,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>4500</v>
       </c>
       <c r="G10" s="16">
@@ -3611,7 +3439,7 @@
         <v>2500</v>
       </c>
       <c r="F11" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G11" s="16">
@@ -3643,14 +3471,14 @@
         <v>1000</v>
       </c>
       <c r="F12" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="G12" s="16">
         <v>3500</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
@@ -3671,12 +3499,12 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I13" s="15"/>
@@ -3697,14 +3525,14 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -3725,14 +3553,14 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G15" s="16">
         <v>2000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I15" s="15"/>
@@ -3760,7 +3588,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -3781,12 +3609,12 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I17" s="15"/>
@@ -3807,14 +3635,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -3833,12 +3661,12 @@
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -3855,12 +3683,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -3889,7 +3717,7 @@
         <v>5000</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>2000</v>
       </c>
       <c r="I21" s="15"/>
@@ -3911,7 +3739,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -3928,12 +3756,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -3950,12 +3778,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="3">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -3972,12 +3800,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -3999,7 +3827,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -4014,12 +3842,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -4030,7 +3858,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="4">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
         <v>2500</v>
       </c>
       <c r="D28" s="15">
@@ -4038,23 +3866,23 @@
         <v>8250</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34500</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45250</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33500</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11750</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4461,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4582,14 +4410,14 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>2500</v>
       </c>
       <c r="G7" s="16">
         <v>2500</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="15"/>
@@ -4618,7 +4446,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -4646,7 +4474,7 @@
         <v>2500</v>
       </c>
       <c r="H9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="15"/>
@@ -4667,7 +4495,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>4500</v>
       </c>
       <c r="G10" s="16">
@@ -4675,7 +4503,7 @@
         <v>2500</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I10" s="15"/>
@@ -4696,14 +4524,14 @@
         <v>2500</v>
       </c>
       <c r="F11" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G11" s="16">
         <v>2500</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I11" s="15"/>
@@ -4724,14 +4552,14 @@
         <v>2500</v>
       </c>
       <c r="F12" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G12" s="16">
         <v>2500</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
@@ -4752,7 +4580,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G13" s="16">
@@ -4760,7 +4588,7 @@
         <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I13" s="15"/>
@@ -4781,14 +4609,14 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -4809,12 +4637,12 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I15" s="15"/>
@@ -4842,7 +4670,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -4860,14 +4688,14 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G17" s="16">
         <v>2000</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="15"/>
@@ -4888,14 +4716,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -4916,7 +4744,7 @@
         <v>4000</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G19" s="16">
@@ -4924,7 +4752,7 @@
         <v>4000</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -4941,12 +4769,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -4975,7 +4803,7 @@
         <v>6500</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
@@ -4997,7 +4825,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -5014,12 +4842,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -5036,12 +4864,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -5058,12 +4886,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -5085,7 +4913,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -5100,12 +4928,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -5116,7 +4944,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="2">SUM(C6:C27)</f>
         <v>0</v>
       </c>
       <c r="D28" s="15">
@@ -5124,15 +4952,15 @@
         <v>9250</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49250</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="H28" s="17">
@@ -5140,7 +4968,7 @@
         <v>9250</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5589,8 +5417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5711,14 +5539,14 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>2500</v>
       </c>
       <c r="G7" s="16">
         <v>2500</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="15"/>
@@ -5747,7 +5575,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -5775,7 +5603,7 @@
         <v>2500</v>
       </c>
       <c r="H9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="15"/>
@@ -5796,14 +5624,14 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>4500</v>
       </c>
       <c r="G10" s="16">
         <v>2500</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I10" s="15"/>
@@ -5824,14 +5652,14 @@
         <v>2500</v>
       </c>
       <c r="F11" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G11" s="16">
         <v>2500</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I11" s="15"/>
@@ -5852,14 +5680,14 @@
         <v>2500</v>
       </c>
       <c r="F12" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G12" s="16">
         <v>2500</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
@@ -5880,15 +5708,16 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G13" s="16">
-        <v>2000</v>
+        <f>2000+2000</f>
+        <v>4000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -5908,14 +5737,14 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -5933,7 +5762,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G15" s="16">
@@ -5941,7 +5770,7 @@
         <v>1000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I15" s="15"/>
@@ -5969,7 +5798,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -5992,7 +5821,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="G17" s="16">
@@ -6000,7 +5829,7 @@
         <v>3500</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="15"/>
@@ -6021,14 +5850,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -6042,12 +5871,12 @@
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -6064,12 +5893,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -6091,7 +5920,7 @@
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
@@ -6113,7 +5942,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -6130,12 +5959,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -6152,12 +5981,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -6174,12 +6003,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -6201,7 +6030,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -6216,12 +6045,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -6232,7 +6061,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="2">SUM(C6:C27)</f>
         <v>1500</v>
       </c>
       <c r="D28" s="15">
@@ -6244,19 +6073,19 @@
         <v>31500</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39750</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="3"/>
-        <v>32000</v>
+        <f t="shared" si="2"/>
+        <v>34000</v>
       </c>
       <c r="H28" s="17">
         <f>SUM(H6:H27)</f>
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6338,7 +6167,7 @@
       </c>
       <c r="F34" s="38">
         <f>G28</f>
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -6396,9 +6225,7 @@
       <c r="A37" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="38">
-        <v>1500</v>
-      </c>
+      <c r="B37" s="38"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -6592,7 +6419,7 @@
       </c>
       <c r="B48" s="45">
         <f>B37+B34+B35+B36-C38</f>
-        <v>23086</v>
+        <v>21586</v>
       </c>
       <c r="C48" s="45">
         <f>SUM(C40:C47)</f>
@@ -6600,14 +6427,14 @@
       </c>
       <c r="D48" s="45">
         <f>B48-C48</f>
-        <v>-3264</v>
+        <v>-4764</v>
       </c>
       <c r="E48" s="37" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="45">
         <f>F34+F35+F37-G38</f>
-        <v>15336</v>
+        <v>17336</v>
       </c>
       <c r="G48" s="45">
         <f>SUM(G40:G47)</f>
@@ -6615,7 +6442,7 @@
       </c>
       <c r="H48" s="45">
         <f>F48-G48</f>
-        <v>-11014</v>
+        <v>-9014</v>
       </c>
       <c r="I48" s="43"/>
     </row>
@@ -6662,8 +6489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6787,13 +6614,15 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
-        <v>2500</v>
-      </c>
-      <c r="G7" s="16"/>
+        <f>C7+D7+E7</f>
+        <v>2500</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2500</v>
+      </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
-        <v>2500</v>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
+        <v>0</v>
       </c>
       <c r="I7" s="15"/>
     </row>
@@ -6817,10 +6646,13 @@
         <f>C8+D8+E8</f>
         <v>3750</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <f>2000+500</f>
+        <v>2500</v>
+      </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
-        <v>3750</v>
+        <f t="shared" si="0"/>
+        <v>1250</v>
       </c>
       <c r="I8" s="15"/>
     </row>
@@ -6843,10 +6675,12 @@
         <f>C9+D9+E9</f>
         <v>2500</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16">
+        <v>2500</v>
+      </c>
       <c r="H9" s="17">
-        <f t="shared" si="1"/>
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -6866,13 +6700,15 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>4500</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16">
+        <v>2500</v>
+      </c>
       <c r="H10" s="17">
-        <f t="shared" si="1"/>
-        <v>4500</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="I10" s="15"/>
     </row>
@@ -6892,13 +6728,15 @@
         <v>2500</v>
       </c>
       <c r="F11" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16">
+        <v>2500</v>
+      </c>
       <c r="H11" s="17">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="I11" s="15"/>
     </row>
@@ -6918,13 +6756,15 @@
         <v>2500</v>
       </c>
       <c r="F12" s="52">
-        <f t="shared" si="2"/>
-        <v>2500</v>
-      </c>
-      <c r="G12" s="16"/>
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2500</v>
+      </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I12" s="15"/>
     </row>
@@ -6938,19 +6778,19 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15">
         <f>'NOVEMBER 21'!H13:H34</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="16">
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -6970,13 +6810,15 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="G14" s="16"/>
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2000</v>
+      </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I14" s="15"/>
     </row>
@@ -6996,12 +6838,12 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I15" s="15"/>
@@ -7027,7 +6869,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I16" s="15"/>
@@ -7048,12 +6890,12 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I17" s="15"/>
@@ -7074,14 +6916,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -7098,12 +6940,12 @@
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -7120,12 +6962,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -7147,7 +6989,7 @@
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
@@ -7169,7 +7011,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -7186,12 +7028,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -7208,12 +7050,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -7230,12 +7072,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -7257,7 +7099,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -7272,12 +7114,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -7288,31 +7130,31 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="2">SUM(C6:C27)</f>
         <v>0</v>
       </c>
       <c r="D28" s="15">
         <f>SUM(D6:D27)</f>
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="E28" s="27">
         <f>SUM(E6:E27)</f>
         <v>31500</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="3"/>
-        <v>39250</v>
+        <f t="shared" si="2"/>
+        <v>37250</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="3"/>
-        <v>6500</v>
+        <f t="shared" si="2"/>
+        <v>23500</v>
       </c>
       <c r="H28" s="17">
         <f>SUM(H6:H27)</f>
-        <v>32750</v>
+        <v>13750</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7394,7 +7236,7 @@
       </c>
       <c r="F34" s="38">
         <f>G28</f>
-        <v>6500</v>
+        <v>23500</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -7410,7 +7252,7 @@
       </c>
       <c r="B35" s="38">
         <f>'NOVEMBER 21'!D48</f>
-        <v>-3264</v>
+        <v>-4764</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -7419,7 +7261,7 @@
       </c>
       <c r="F35" s="38">
         <f>'NOVEMBER 21'!H48</f>
-        <v>-11014</v>
+        <v>-9014</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -7452,7 +7294,10 @@
       <c r="A37" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="38">
+        <f>1500</f>
+        <v>1500</v>
+      </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -7460,8 +7305,9 @@
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="I37" s="3"/>
-      <c r="K37">
-        <v>10000</v>
+      <c r="K37" s="28">
+        <f>C44</f>
+        <v>2032</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -7490,7 +7336,7 @@
       <c r="I38" s="3"/>
       <c r="K38" s="44">
         <f>K36-K37</f>
-        <v>18350</v>
+        <v>26318</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7510,7 +7356,7 @@
       <c r="H39" s="26"/>
       <c r="I39" s="34"/>
       <c r="K39">
-        <v>2000</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7533,7 +7379,7 @@
       <c r="I40" s="3"/>
       <c r="K40" s="44">
         <f>K38-K39</f>
-        <v>16350</v>
+        <v>21554</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7542,8 +7388,8 @@
       <c r="E41" s="40"/>
       <c r="H41" s="26"/>
       <c r="I41" s="43"/>
-      <c r="K41">
-        <v>1000</v>
+      <c r="K41" s="28">
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7564,47 +7410,70 @@
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="34"/>
+      <c r="K42" s="44">
+        <f>K40+K41</f>
+        <v>23054</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
-        <v>138</v>
-      </c>
+      <c r="A43" s="40"/>
       <c r="B43" s="39"/>
-      <c r="C43" s="26">
-        <v>5055</v>
-      </c>
+      <c r="C43" s="26"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="40" t="s">
-        <v>138</v>
-      </c>
+      <c r="E43" s="40"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="26">
-        <v>5055</v>
-      </c>
+      <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="43"/>
+      <c r="K43">
+        <v>10000</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="40" t="s">
+        <v>138</v>
+      </c>
       <c r="B44" s="26"/>
-      <c r="C44" s="42"/>
+      <c r="C44" s="42">
+        <v>2032</v>
+      </c>
       <c r="D44" s="26"/>
-      <c r="E44" s="40"/>
+      <c r="E44" s="40" t="s">
+        <v>138</v>
+      </c>
       <c r="F44" s="26"/>
-      <c r="G44" s="42"/>
+      <c r="G44" s="42">
+        <v>2032</v>
+      </c>
       <c r="H44" s="26"/>
       <c r="I44" s="3"/>
+      <c r="K44" s="44">
+        <f>K42-K43</f>
+        <v>13054</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40" t="s">
+        <v>139</v>
+      </c>
       <c r="B45" s="26"/>
-      <c r="C45" s="42"/>
+      <c r="C45" s="42">
+        <v>4000</v>
+      </c>
       <c r="D45" s="26"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="40" t="s">
+        <v>139</v>
+      </c>
       <c r="F45" s="26"/>
-      <c r="G45" s="42"/>
+      <c r="G45" s="42">
+        <v>4000</v>
+      </c>
       <c r="H45" s="26"/>
       <c r="I45" s="43"/>
+      <c r="K45">
+        <f>4000</f>
+        <v>4000</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
@@ -7616,6 +7485,10 @@
       <c r="G46" s="42"/>
       <c r="H46" s="26"/>
       <c r="I46" s="3"/>
+      <c r="K46" s="44">
+        <f>K44-K45</f>
+        <v>9054</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
@@ -7638,26 +7511,26 @@
       </c>
       <c r="C48" s="45">
         <f>SUM(C40:C47)</f>
-        <v>15055</v>
+        <v>16032</v>
       </c>
       <c r="D48" s="45">
         <f>B48-C48</f>
-        <v>10031</v>
+        <v>9054</v>
       </c>
       <c r="E48" s="37" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="45">
         <f>F34+F35+F37-G38</f>
-        <v>-7664</v>
+        <v>11336</v>
       </c>
       <c r="G48" s="45">
         <f>SUM(G40:G47)</f>
-        <v>15055</v>
+        <v>16032</v>
       </c>
       <c r="H48" s="45">
         <f>F48-G48</f>
-        <v>-22719</v>
+        <v>-4696</v>
       </c>
       <c r="I48" s="43"/>
     </row>
@@ -8171,7 +8044,7 @@
         <v>4500</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
@@ -8190,7 +8063,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -8209,7 +8082,7 @@
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -8228,7 +8101,7 @@
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="2">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -8325,7 +8198,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="28">
         <f>H28-2000</f>
@@ -9249,7 +9122,7 @@
         <v>4500</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
@@ -9271,7 +9144,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -9293,7 +9166,7 @@
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -9315,7 +9188,7 @@
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="2">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -9421,7 +9294,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="15">
         <f>'[1]OCTOBER 20'!H29:H51</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="28">
         <f>H28-2000</f>
@@ -9906,7 +9779,7 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>5000</v>
       </c>
       <c r="G7" s="16">
@@ -9914,7 +9787,7 @@
         <v>2500</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>2500</v>
       </c>
       <c r="I7" s="15"/>
@@ -9944,7 +9817,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -9994,14 +9867,14 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>3500</v>
       </c>
       <c r="G10" s="16">
         <v>2500</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I10" s="15"/>
@@ -10030,7 +9903,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="I11" s="15"/>
@@ -10051,14 +9924,14 @@
         <v>2500</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G12" s="16">
         <v>2500</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
@@ -10079,14 +9952,14 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G13" s="16">
         <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
@@ -10107,7 +9980,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
@@ -10115,7 +9988,7 @@
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -10136,7 +10009,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G15" s="16">
@@ -10144,7 +10017,7 @@
         <v>2000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="15"/>
@@ -10173,7 +10046,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="15"/>
@@ -10194,14 +10067,14 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="G17" s="16">
         <v>1000</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="I17" s="15"/>
@@ -10220,12 +10093,12 @@
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -10246,7 +10119,7 @@
         <v>4000</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G19" s="16">
@@ -10254,7 +10127,7 @@
         <v>4000</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -10271,12 +10144,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -10305,7 +10178,7 @@
         <v>4500</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
@@ -10327,7 +10200,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -10344,12 +10217,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -10366,12 +10239,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="3">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -10388,12 +10261,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -10415,7 +10288,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -10430,12 +10303,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -10446,7 +10319,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="4">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
         <v>0</v>
       </c>
       <c r="D28" s="15">
@@ -10454,15 +10327,15 @@
         <v>12750</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36000</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>48750</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34500</v>
       </c>
       <c r="H28" s="16">
@@ -10470,7 +10343,7 @@
         <v>14250</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10951,7 +10824,7 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>5000</v>
       </c>
       <c r="G7" s="16">
@@ -10959,7 +10832,7 @@
         <v>2500</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>2500</v>
       </c>
       <c r="I7" s="15"/>
@@ -10989,7 +10862,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -11037,7 +10910,7 @@
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>1000</v>
       </c>
       <c r="G10" s="16"/>
@@ -11068,7 +10941,7 @@
         <v>2500</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="I11" s="15"/>
@@ -11089,7 +10962,7 @@
         <v>2500</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G12" s="16">
@@ -11097,7 +10970,7 @@
         <v>2500</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
@@ -11118,7 +10991,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G13" s="16">
@@ -11126,7 +10999,7 @@
         <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
@@ -11147,7 +11020,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
@@ -11155,7 +11028,7 @@
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -11176,7 +11049,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G15" s="16">
@@ -11184,7 +11057,7 @@
         <v>2000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="15"/>
@@ -11213,7 +11086,7 @@
         <v>1000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -11234,7 +11107,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="G17" s="16">
@@ -11242,7 +11115,7 @@
         <v>2000</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="I17" s="15"/>
@@ -11261,12 +11134,12 @@
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -11287,12 +11160,12 @@
         <v>4000</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="I19" s="15"/>
@@ -11309,12 +11182,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -11342,7 +11215,7 @@
         <v>4500</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>0</v>
       </c>
       <c r="I21" s="15"/>
@@ -11364,7 +11237,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -11381,12 +11254,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -11403,12 +11276,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="3">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -11425,12 +11298,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -11452,7 +11325,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -11467,12 +11340,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -11483,7 +11356,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="4">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
         <v>0</v>
       </c>
       <c r="D28" s="15">
@@ -11491,23 +11364,23 @@
         <v>14250</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33500</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>47750</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28500</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18250</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12003,12 +11876,12 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>5000</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>5000</v>
       </c>
       <c r="I7" s="15"/>
@@ -12038,7 +11911,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -12088,7 +11961,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>2500</v>
       </c>
       <c r="G10" s="16">
@@ -12122,7 +11995,7 @@
         <v>1000</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I11" s="15"/>
@@ -12143,14 +12016,14 @@
         <v>2500</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G12" s="16">
         <v>2500</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
@@ -12171,14 +12044,14 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G13" s="16">
         <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
@@ -12199,7 +12072,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
@@ -12207,7 +12080,7 @@
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -12226,12 +12099,12 @@
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="15"/>
@@ -12260,7 +12133,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -12281,7 +12154,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="G17" s="16">
@@ -12289,7 +12162,7 @@
         <v>1500</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="I17" s="15"/>
@@ -12314,14 +12187,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -12342,12 +12215,12 @@
         <v>4000</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="I19" s="15"/>
@@ -12364,12 +12237,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -12398,7 +12271,7 @@
         <v>3000</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>1500</v>
       </c>
       <c r="I21" s="15"/>
@@ -12420,7 +12293,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -12437,12 +12310,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -12459,12 +12332,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="3">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -12481,12 +12354,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -12508,7 +12381,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -12523,12 +12396,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -12539,7 +12412,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="4">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
         <v>0</v>
       </c>
       <c r="D28" s="15">
@@ -12547,23 +12420,23 @@
         <v>18250</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35500</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53750</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25500</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28250</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13077,7 +12950,7 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>2500</v>
       </c>
       <c r="G7" s="16">
@@ -13085,7 +12958,7 @@
         <v>2000</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>500</v>
       </c>
       <c r="I7" s="15"/>
@@ -13115,7 +12988,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -13165,7 +13038,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>2500</v>
       </c>
       <c r="G10" s="16">
@@ -13216,7 +13089,7 @@
         <v>2500</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G12" s="16">
@@ -13224,7 +13097,7 @@
         <v>2000</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I12" s="15"/>
@@ -13245,14 +13118,14 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G13" s="16">
         <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
@@ -13273,7 +13146,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
@@ -13281,7 +13154,7 @@
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -13304,7 +13177,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G15" s="16">
@@ -13312,7 +13185,7 @@
         <v>3000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I15" s="15"/>
@@ -13341,7 +13214,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -13361,7 +13234,7 @@
         <v>850</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2850</v>
       </c>
       <c r="G17" s="16">
@@ -13369,7 +13242,7 @@
         <v>2500</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="I17" s="15"/>
@@ -13390,14 +13263,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -13413,12 +13286,12 @@
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -13435,12 +13308,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -13469,7 +13342,7 @@
         <v>4000</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>2000</v>
       </c>
       <c r="I21" s="15"/>
@@ -13491,7 +13364,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -13508,12 +13381,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -13530,12 +13403,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="3">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -13552,12 +13425,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -13579,7 +13452,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -13594,12 +13467,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -13610,7 +13483,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="4">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
         <v>4000</v>
       </c>
       <c r="D28" s="15">
@@ -13618,23 +13491,23 @@
         <v>6750</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32350</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43100</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33500</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6600</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14219,7 +14092,7 @@
         <v>1400</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>1900</v>
       </c>
       <c r="G7" s="16">
@@ -14227,7 +14100,7 @@
         <v>1900</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="15"/>
@@ -14257,7 +14130,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -14307,7 +14180,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>2500</v>
       </c>
       <c r="G10" s="16">
@@ -14333,7 +14206,7 @@
         <v>2500</v>
       </c>
       <c r="F11" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G11" s="16">
@@ -14359,7 +14232,7 @@
         <v>2500</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G12" s="16">
@@ -14367,7 +14240,7 @@
         <v>2500</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I12" s="15"/>
@@ -14388,14 +14261,14 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G13" s="16">
         <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
@@ -14416,7 +14289,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
@@ -14424,7 +14297,7 @@
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -14444,7 +14317,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G15" s="16">
@@ -14452,7 +14325,7 @@
         <v>2500</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I15" s="15"/>
@@ -14481,7 +14354,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -14502,7 +14375,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2350</v>
       </c>
       <c r="G17" s="16">
@@ -14510,7 +14383,7 @@
         <v>2300</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="I17" s="15"/>
@@ -14531,14 +14404,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -14557,12 +14430,12 @@
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -14579,12 +14452,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -14612,7 +14485,7 @@
         <v>5000</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>1500</v>
       </c>
       <c r="I21" s="15"/>
@@ -14634,7 +14507,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -14651,12 +14524,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -14673,12 +14546,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="3">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -14695,12 +14568,12 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -14722,7 +14595,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -14737,12 +14610,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -14753,7 +14626,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="4">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
         <v>1000</v>
       </c>
       <c r="D28" s="15">
@@ -14761,23 +14634,23 @@
         <v>6600</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34900</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41500</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36700</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28">
@@ -15312,14 +15185,14 @@
         <v>2500</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7" si="0">C7+D7+E7</f>
+        <f>C7+D7+E7</f>
         <v>5000</v>
       </c>
       <c r="G7" s="16">
         <v>5000</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7:H27" si="1">F7-G7</f>
+        <f t="shared" ref="H7:H27" si="0">F7-G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="15"/>
@@ -15348,7 +15221,7 @@
         <v>2500</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I8" s="15"/>
@@ -15397,7 +15270,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:F27" si="2">C10+D10+E10</f>
+        <f t="shared" ref="F10:F27" si="1">C10+D10+E10</f>
         <v>2500</v>
       </c>
       <c r="G10" s="16">
@@ -15425,7 +15298,7 @@
         <v>2500</v>
       </c>
       <c r="F11" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G11" s="16">
@@ -15454,12 +15327,12 @@
         <v>2500</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I12" s="15"/>
@@ -15480,14 +15353,14 @@
         <v>2000</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G13" s="16">
         <v>2000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="15"/>
@@ -15508,14 +15381,14 @@
         <v>2000</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="16">
         <v>2000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
@@ -15535,7 +15408,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="G15" s="16">
@@ -15543,7 +15416,7 @@
         <v>2000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I15" s="15"/>
@@ -15572,7 +15445,7 @@
         <v>2000</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="15"/>
@@ -15593,7 +15466,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2050</v>
       </c>
       <c r="G17" s="16">
@@ -15601,7 +15474,7 @@
         <v>2050</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="15"/>
@@ -15622,14 +15495,14 @@
         <v>4000</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G18" s="16">
         <v>4000</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="15"/>
@@ -15648,12 +15521,12 @@
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="15"/>
@@ -15670,12 +15543,12 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="15"/>
@@ -15703,7 +15576,7 @@
         <v>4000</v>
       </c>
       <c r="H21" s="17">
-        <f>F21-G21</f>
+        <f t="shared" ref="H21:H26" si="2">F21-G21</f>
         <v>2000</v>
       </c>
       <c r="I21" s="15"/>
@@ -15725,7 +15598,7 @@
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
-        <f>F22-G22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15"/>
@@ -15742,12 +15615,12 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
-        <f>F23-G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15"/>
@@ -15764,12 +15637,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
-        <f t="shared" ref="H24:H26" si="3">F24-G24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="15"/>
@@ -15790,14 +15663,14 @@
         <v>2000</v>
       </c>
       <c r="F25" s="16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="G25" s="16">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="17">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="G25" s="16">
-        <v>2000</v>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="15"/>
@@ -15819,7 +15692,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="15"/>
@@ -15834,12 +15707,12 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="15"/>
@@ -15850,7 +15723,7 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14">
-        <f t="shared" ref="C28:I28" si="4">SUM(C6:C27)</f>
+        <f t="shared" ref="C28:I28" si="3">SUM(C6:C27)</f>
         <v>3000</v>
       </c>
       <c r="D28" s="15">
@@ -15858,23 +15731,23 @@
         <v>4300</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38000</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45300</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37050</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8250</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
